--- a/data/template.xlsx
+++ b/data/template.xlsx
@@ -306,19 +306,19 @@
     <t xml:space="preserve">Challenges</t>
   </si>
   <si>
-    <t xml:space="preserve">Festival Zero</t>
+    <t xml:space="preserve">FZ</t>
   </si>
   <si>
     <t xml:space="preserve">Roles</t>
   </si>
   <si>
-    <t xml:space="preserve">StART-up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This Is Contemporary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You! Yes, You!</t>
+    <t xml:space="preserve">SUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YYY</t>
   </si>
   <si>
     <t xml:space="preserve">Skills</t>
@@ -658,7 +658,7 @@
   <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
+      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -906,7 +906,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1224,7 +1224,7 @@
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I17" activeCellId="0" sqref="I17"/>
+      <selection pane="topLeft" activeCell="I17" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1648,7 +1648,7 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
